--- a/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
@@ -1,67 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Equip" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Equip" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildJob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ob</t>
+    </r>
   </si>
   <si>
     <t>JobCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Appoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Demise</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ApplyDismiss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>S</t>
     </r>
     <r>
@@ -69,7 +79,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>top</t>
@@ -79,15 +88,19 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Dismiss</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -95,113 +108,520 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>cceptApply</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DenyApply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Kickout</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SetRecruit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PublishRecruit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EditAD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Leave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LevelUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>公会职位</t>
+  </si>
+  <si>
+    <t>公会职位人数</t>
+  </si>
+  <si>
+    <t>任命</t>
+  </si>
+  <si>
+    <t>撤职</t>
+  </si>
+  <si>
+    <t>禅让</t>
+  </si>
+  <si>
+    <t>申请解散军团</t>
+  </si>
+  <si>
+    <t>中止解散军团</t>
+  </si>
+  <si>
+    <t>收人</t>
+  </si>
+  <si>
+    <t>拒收</t>
+  </si>
+  <si>
+    <t>开除</t>
+  </si>
+  <si>
+    <t>设置招募</t>
+  </si>
+  <si>
+    <t>发布招募</t>
+  </si>
+  <si>
+    <t>编辑公告</t>
+  </si>
+  <si>
+    <t>退团</t>
+  </si>
+  <si>
+    <t>军团升级</t>
   </si>
   <si>
     <t>GuildJobg_Master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildJobg_Assistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demise</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GuildJobg_Elite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildJobg_Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -211,48 +631,350 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -263,103 +985,17 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemType" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ItemSubType" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="Level" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="Job" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Quality" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ShowName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Desc" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="EffectData" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="PrefabPath" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="DropPrePath" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="BuyPrice" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="SalePrice" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="SuitID" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="SuitBuffID" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:P3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:P3"/>
-  <tableColumns count="16">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="ItemType" name="GuildJob">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ItemType" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="ItemSubType" name="JobCount">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ItemSubType" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Level" name="Appoint">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Level" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="Job" name="Fire">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Job" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Quality" name="Demise">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Quality" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="ShowName" name="ApplyDismiss">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ShowName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="8" name="StopDismiss"/>
-    <tableColumn id="9" uniqueName="9" name="AcceptApply"/>
-    <tableColumn id="10" uniqueName="10" name="DenyApply"/>
-    <tableColumn id="11" uniqueName="11" name="Kickout"/>
-    <tableColumn id="12" uniqueName="12" name="SetRecruit"/>
-    <tableColumn id="13" uniqueName="13" name="PublishRecruit"/>
-    <tableColumn id="14" uniqueName="14" name="EditAD"/>
-    <tableColumn id="15" uniqueName="15" name="Leave"/>
-    <tableColumn id="16" uniqueName="16" name="LevelUp"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +1041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,7 +1076,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,52 +1251,48 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="$A2:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -693,265 +1325,508 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
+    <row r="3" s="2" customFormat="1" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
+    <row r="10" spans="1:16">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
+    <row r="11" spans="1:16">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C11" s="6">
         <v>-1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -167,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,21 +194,135 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,131 +337,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -369,31 +364,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,158 +548,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -602,6 +597,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -635,6 +643,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -662,35 +683,6 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,7 +736,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,157 +755,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,22 +944,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,10 +968,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -959,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1041,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1026,7 +1050,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1300,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1319,107 +1342,107 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:16">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="10" t="b">
@@ -1469,7 +1492,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="10" t="b">
@@ -1519,7 +1542,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="10" t="b">
@@ -1569,7 +1592,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:16">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="10" t="b">
@@ -1618,257 +1641,313 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:16">
+    <row r="7" s="3" customFormat="1" spans="1:16">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="L8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="M8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="N8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="O8" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="13" t="s">
+      <c r="P8" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="14">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>1</v>
-      </c>
-      <c r="N9" s="14">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14">
-        <v>1</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="14">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>1</v>
-      </c>
-      <c r="N10" s="14">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>1</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1</v>
+      </c>
+      <c r="P10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
         <v>4</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15">
         <v>-1</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>1</v>
-      </c>
-      <c r="P11" s="14">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>1</v>
+      </c>
+      <c r="P12" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,20 +17,28 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Equip" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Equip" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -168,18 +181,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +194,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,152 +205,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,194 +225,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -675,262 +352,20 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,61 +422,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1055,12 +442,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1321,27 +713,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1491,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:16">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1541,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:16">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1591,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:16">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -1691,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:16">
+    <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1741,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
@@ -1841,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>44</v>
       </c>
@@ -1891,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>45</v>
       </c>
@@ -1948,7 +1340,6 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/GuildJob.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -176,17 +176,21 @@
   </si>
   <si>
     <t>GuildJobg_Member</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,8 +198,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +208,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -423,7 +433,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -451,6 +461,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -714,26 +727,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -783,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -833,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -883,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -933,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -983,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -1083,165 +1096,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
-        <v>1</v>
-      </c>
-      <c r="N9" s="15">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <v>2</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <v>1</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
@@ -1265,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="15">
         <v>1</v>
@@ -1283,15 +1296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
         <v>4</v>
-      </c>
-      <c r="C12" s="15">
-        <v>-1</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -1306,13 +1319,13 @@
         <v>43</v>
       </c>
       <c r="H12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
@@ -1321,22 +1334,73 @@
         <v>0</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="15">
         <v>1</v>
       </c>
       <c r="P12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1</v>
+      </c>
+      <c r="P13" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
